--- a/配置文件/音效表.xlsx
+++ b/配置文件/音效表.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28429"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28526"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\2025-Computer-Design\配置文件\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Unity\2025-Computer-Design\配置文件\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D05840BD-8A89-4174-8BD9-B292F90C0F7A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8CAA0F2B-A85D-4436-AD95-3BF2BA34208C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="13900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="26">
   <si>
     <t>音效效果</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -43,10 +43,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Unlock</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>SoundEffect</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -76,14 +72,6 @@
   </si>
   <si>
     <t>主菜单/选关</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>主菜单BGM</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>MainMenuBGM</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -176,12 +164,36 @@
     <t>FinishLevel</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>全局</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>为了音乐的完整性感觉随机播放好一点</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>从选关开始随机播放BGM</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LockBreak</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>找找去</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>已完成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -221,6 +233,14 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="8"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -242,20 +262,24 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
+      <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -536,10 +560,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E12"/>
+  <dimension ref="A1:F13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I14" sqref="I14"/>
+    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -547,32 +571,32 @@
     <col min="1" max="1" width="20.25" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="16.58203125" customWidth="1"/>
     <col min="3" max="4" width="13.5" customWidth="1"/>
-    <col min="5" max="5" width="30.9140625" customWidth="1"/>
+    <col min="5" max="5" width="33.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A1" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A2" s="2"/>
-      <c r="B2" s="2"/>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
-    </row>
-    <row r="3" spans="1:5" ht="77" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="2"/>
-      <c r="B3" s="2"/>
-      <c r="C3" s="2"/>
-      <c r="D3" s="2"/>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A1" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1" s="3"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A2" s="3"/>
+      <c r="B2" s="3"/>
+      <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
+    </row>
+    <row r="3" spans="1:6" ht="77" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="3"/>
+      <c r="B3" s="3"/>
+      <c r="C3" s="3"/>
+      <c r="D3" s="3"/>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B4" t="s">
         <v>0</v>
@@ -584,99 +608,122 @@
         <v>2</v>
       </c>
       <c r="E4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A5" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="D5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E5" t="s">
+        <v>21</v>
+      </c>
+      <c r="F5" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A6" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A5" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B5" t="s">
+      <c r="C6" t="s">
+        <v>8</v>
+      </c>
+      <c r="D6" t="s">
+        <v>4</v>
+      </c>
+      <c r="F6" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A7" s="4"/>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A8" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C8" t="s">
+        <v>23</v>
+      </c>
+      <c r="D8" t="s">
+        <v>4</v>
+      </c>
+      <c r="F8" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A9" s="4"/>
+      <c r="B9" t="s">
+        <v>9</v>
+      </c>
+      <c r="C9" t="s">
         <v>7</v>
       </c>
-      <c r="C5" t="s">
-        <v>9</v>
-      </c>
-      <c r="D5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A6" s="1"/>
-      <c r="B6" t="s">
-        <v>13</v>
-      </c>
-      <c r="C6" t="s">
+      <c r="D9" t="s">
+        <v>4</v>
+      </c>
+      <c r="F9" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="4"/>
+      <c r="B10" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="D6" t="s">
+      <c r="C10" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A7" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B7" t="s">
-        <v>3</v>
-      </c>
-      <c r="C7" t="s">
+      <c r="D10" t="s">
         <v>4</v>
       </c>
-      <c r="D7" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A8" s="1"/>
-      <c r="B8" t="s">
-        <v>10</v>
-      </c>
-      <c r="C8" t="s">
-        <v>8</v>
-      </c>
-      <c r="D8" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="1"/>
-      <c r="B9" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="C9" t="s">
+      <c r="E10" t="s">
+        <v>16</v>
+      </c>
+      <c r="F10" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A11" s="4"/>
+      <c r="B11" t="s">
         <v>18</v>
       </c>
-      <c r="D9" t="s">
-        <v>5</v>
-      </c>
-      <c r="E9" t="s">
+      <c r="C11" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A10" s="1"/>
-      <c r="B10" t="s">
-        <v>21</v>
-      </c>
-      <c r="C10" t="s">
-        <v>22</v>
-      </c>
-      <c r="D10" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A11" s="1"/>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A12" s="1"/>
+      <c r="D11" t="s">
+        <v>4</v>
+      </c>
+      <c r="F11" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A12" s="4"/>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A13" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="3">
     <mergeCell ref="A1:D3"/>
-    <mergeCell ref="A5:A6"/>
-    <mergeCell ref="A7:A12"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="A8:A13"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/配置文件/音效表.xlsx
+++ b/配置文件/音效表.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Unity\2025-Computer-Design\配置文件\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8CAA0F2B-A85D-4436-AD95-3BF2BA34208C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F15269DD-8CE9-44B2-900D-A70BC6557582}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="13900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="27">
   <si>
     <t>音效效果</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -181,11 +181,15 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>找找去</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>已完成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>已上传</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>准备情况</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -268,6 +272,10 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -276,10 +284,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -563,7 +567,7 @@
   <dimension ref="A1:F13"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -575,24 +579,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="B1" s="3"/>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
+      <c r="B1" s="5"/>
+      <c r="C1" s="5"/>
+      <c r="D1" s="5"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A2" s="3"/>
-      <c r="B2" s="3"/>
-      <c r="C2" s="3"/>
-      <c r="D2" s="3"/>
+      <c r="A2" s="5"/>
+      <c r="B2" s="5"/>
+      <c r="C2" s="5"/>
+      <c r="D2" s="5"/>
     </row>
     <row r="3" spans="1:6" ht="77" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="3"/>
-      <c r="B3" s="3"/>
-      <c r="C3" s="3"/>
-      <c r="D3" s="3"/>
+      <c r="A3" s="5"/>
+      <c r="B3" s="5"/>
+      <c r="C3" s="5"/>
+      <c r="D3" s="5"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
@@ -610,12 +614,15 @@
       <c r="E4" t="s">
         <v>5</v>
       </c>
+      <c r="F4" t="s">
+        <v>26</v>
+      </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A5" s="5" t="s">
+      <c r="A5" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="B5" s="6" t="s">
+      <c r="B5" s="3" t="s">
         <v>22</v>
       </c>
       <c r="D5" t="s">
@@ -625,11 +632,11 @@
         <v>21</v>
       </c>
       <c r="F5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A6" s="4" t="s">
+      <c r="A6" s="6" t="s">
         <v>11</v>
       </c>
       <c r="B6" t="s">
@@ -642,14 +649,14 @@
         <v>4</v>
       </c>
       <c r="F6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A7" s="4"/>
+      <c r="A7" s="6"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A8" s="4" t="s">
+      <c r="A8" s="6" t="s">
         <v>17</v>
       </c>
       <c r="B8" t="s">
@@ -662,11 +669,11 @@
         <v>4</v>
       </c>
       <c r="F8" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A9" s="4"/>
+      <c r="A9" s="6"/>
       <c r="B9" t="s">
         <v>9</v>
       </c>
@@ -677,11 +684,11 @@
         <v>4</v>
       </c>
       <c r="F9" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="4"/>
+      <c r="A10" s="6"/>
       <c r="B10" s="1" t="s">
         <v>14</v>
       </c>
@@ -695,11 +702,11 @@
         <v>16</v>
       </c>
       <c r="F10" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A11" s="4"/>
+      <c r="A11" s="6"/>
       <c r="B11" t="s">
         <v>18</v>
       </c>
@@ -710,14 +717,14 @@
         <v>4</v>
       </c>
       <c r="F11" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A12" s="4"/>
+      <c r="A12" s="6"/>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A13" s="4"/>
+      <c r="A13" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="3">

--- a/配置文件/音效表.xlsx
+++ b/配置文件/音效表.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Unity\2025-Computer-Design\配置文件\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\2025-Computer-Design\配置文件\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F15269DD-8CE9-44B2-900D-A70BC6557582}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F190BC4-B1F6-425E-8A46-8AC6EAD99F13}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="13900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="38">
   <si>
     <t>音效效果</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -190,6 +190,50 @@
   </si>
   <si>
     <t>准备情况</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>磁场开启音效</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>磁场关闭音效</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>透镜选中音效</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LensClick</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>带点清脆感？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MagnetOpen</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MagnetCloce</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>成功将磁铁放入盒中</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Caged</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>点亮一颗"魂"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LightAchievement</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -564,18 +608,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F13"/>
+  <dimension ref="A1:F16"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="20.25" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="16.58203125" customWidth="1"/>
-    <col min="3" max="4" width="13.5" customWidth="1"/>
+    <col min="3" max="3" width="16.08203125" customWidth="1"/>
+    <col min="4" max="4" width="13.5" customWidth="1"/>
     <col min="5" max="5" width="33.75" customWidth="1"/>
+    <col min="7" max="7" width="14.83203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
@@ -722,15 +768,72 @@
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" s="6"/>
+      <c r="B12" t="s">
+        <v>29</v>
+      </c>
+      <c r="C12" t="s">
+        <v>30</v>
+      </c>
+      <c r="D12" t="s">
+        <v>4</v>
+      </c>
+      <c r="E12" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" s="6"/>
+      <c r="B13" t="s">
+        <v>36</v>
+      </c>
+      <c r="C13" t="s">
+        <v>37</v>
+      </c>
+      <c r="D13" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A14" s="6"/>
+      <c r="B14" t="s">
+        <v>27</v>
+      </c>
+      <c r="C14" t="s">
+        <v>32</v>
+      </c>
+      <c r="D14" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A15" s="6"/>
+      <c r="B15" t="s">
+        <v>28</v>
+      </c>
+      <c r="C15" t="s">
+        <v>33</v>
+      </c>
+      <c r="D15" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A16" s="6"/>
+      <c r="B16" t="s">
+        <v>34</v>
+      </c>
+      <c r="C16" t="s">
+        <v>35</v>
+      </c>
+      <c r="D16" t="s">
+        <v>4</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="3">
     <mergeCell ref="A1:D3"/>
     <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A8:A13"/>
+    <mergeCell ref="A8:A16"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/配置文件/音效表.xlsx
+++ b/配置文件/音效表.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\2025-Computer-Design\配置文件\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Unity\2025-Computer-Design\配置文件\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F190BC4-B1F6-425E-8A46-8AC6EAD99F13}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1FBA8A28-B28E-4E2A-8576-121B18B931E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="13900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="38">
   <si>
     <t>音效效果</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -181,10 +181,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>已完成</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>已上传</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -234,6 +230,10 @@
   </si>
   <si>
     <t>LightAchievement</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>已上传（感觉还能再找找那种有点粒子声的</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -611,7 +611,7 @@
   <dimension ref="A1:F16"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="H3" sqref="H3"/>
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -621,6 +621,7 @@
     <col min="3" max="3" width="16.08203125" customWidth="1"/>
     <col min="4" max="4" width="13.5" customWidth="1"/>
     <col min="5" max="5" width="33.75" customWidth="1"/>
+    <col min="6" max="6" width="40.33203125" customWidth="1"/>
     <col min="7" max="7" width="14.83203125" customWidth="1"/>
   </cols>
   <sheetData>
@@ -661,7 +662,7 @@
         <v>5</v>
       </c>
       <c r="F4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
@@ -695,7 +696,7 @@
         <v>4</v>
       </c>
       <c r="F6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
@@ -730,7 +731,7 @@
         <v>4</v>
       </c>
       <c r="F9" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -748,7 +749,7 @@
         <v>16</v>
       </c>
       <c r="F10" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
@@ -763,70 +764,85 @@
         <v>4</v>
       </c>
       <c r="F11" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" s="6"/>
       <c r="B12" t="s">
+        <v>28</v>
+      </c>
+      <c r="C12" t="s">
         <v>29</v>
       </c>
-      <c r="C12" t="s">
+      <c r="D12" t="s">
+        <v>4</v>
+      </c>
+      <c r="E12" t="s">
         <v>30</v>
       </c>
-      <c r="D12" t="s">
-        <v>4</v>
-      </c>
-      <c r="E12" t="s">
-        <v>31</v>
+      <c r="F12" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" s="6"/>
       <c r="B13" t="s">
+        <v>35</v>
+      </c>
+      <c r="C13" t="s">
         <v>36</v>
       </c>
-      <c r="C13" t="s">
+      <c r="D13" t="s">
+        <v>4</v>
+      </c>
+      <c r="F13" t="s">
         <v>37</v>
-      </c>
-      <c r="D13" t="s">
-        <v>4</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" s="6"/>
       <c r="B14" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C14" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D14" t="s">
         <v>4</v>
+      </c>
+      <c r="F14" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" s="6"/>
       <c r="B15" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C15" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D15" t="s">
         <v>4</v>
+      </c>
+      <c r="F15" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" s="6"/>
       <c r="B16" t="s">
+        <v>33</v>
+      </c>
+      <c r="C16" t="s">
         <v>34</v>
       </c>
-      <c r="C16" t="s">
-        <v>35</v>
-      </c>
       <c r="D16" t="s">
         <v>4</v>
+      </c>
+      <c r="F16" t="s">
+        <v>24</v>
       </c>
     </row>
   </sheetData>
